--- a/biology/Médecine/Anne-Marie_Imbrecq/Anne-Marie_Imbrecq.xlsx
+++ b/biology/Médecine/Anne-Marie_Imbrecq/Anne-Marie_Imbrecq.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anne-Marie Jeanne Imbrecq[1], née à Paris le 18 juin 1911 et décédée le 28 novembre 2005[2] à Bagneux[3], est une infirmière, parachutiste et pilote d'avion civile et militaire française[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anne-Marie Jeanne Imbrecq, née à Paris le 18 juin 1911 et décédée le 28 novembre 2005 à Bagneux, est une infirmière, parachutiste et pilote d'avion civile et militaire française.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle était la fille de l'avocat de Paris Joseph Imbrecq[5] spécialisé dans le droit des transports[6], infirmière diplômée, volontaire dans la Croix-Rouge en 1932, titulaire du brevet de pilote de tourisme (Brevet no 14166 du 10 mai 1932), de transport public (1937) et de parachutiste (1936)[7].
-En 1932, elle est appelée au tribunal à Paris après l'ouverture d'une enquête sur la mort du parachutiste Marcel Gayet qui est décédé après un saut en parachute raté de la tour Eiffel[8]. Imbrecq a sauté après lui, et après une interdiction des lancements de parachutes de la Tour, a fini sous enquête sans aucune conséquence[9].
-Elle s'est enrôlée parmi les premiers volontaires en 1939 dans les services sanitaires de l'Armée de l'air. En février 1940, elle a été envoyée en Scandinavie et retourne à Paris avec les collègues le 7 avril 1940[10]. Entre juin et novembre 1940, elle est en service à la base aérienne de Bordeaux[11]. Elle a ensuite été confiée à l'APN (Armée de l'air en Afrique du Nord) à Alger, où elle aurait dû contribuer à la création d'un service de transport aérien. Quand la Tunisie a été occupée, elle s'est engagée dans les Corps francs d'Afrique en tant qu'infirmière et ambulancière[12].
-Réclamée en France après la Libération et - comme les autres aviatrices impliquées dans l'initiative de Charles Tillon pendant le gouvernement De Gaulle pour former une équipe de femmes, le premier corps de pilotes militaires féminins (France) - a été envoyée pour la formation à Châteauroux et à Tours[13] et avec Suzanne Melk, Élisabeth Boselli et Geneviève Lefevre-Seillier le 12 février 1946 a obtenu sa licence de pilote de chasse (Brevet No 32941).
-Elle a reçu la Médaille de la Résistance[14] et la Légion d'honneur pour le service de 1939 à 1945 en tant que pilote de l'armée et de la Croix-Rouge[15].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle était la fille de l'avocat de Paris Joseph Imbrecq spécialisé dans le droit des transports, infirmière diplômée, volontaire dans la Croix-Rouge en 1932, titulaire du brevet de pilote de tourisme (Brevet no 14166 du 10 mai 1932), de transport public (1937) et de parachutiste (1936).
+En 1932, elle est appelée au tribunal à Paris après l'ouverture d'une enquête sur la mort du parachutiste Marcel Gayet qui est décédé après un saut en parachute raté de la tour Eiffel. Imbrecq a sauté après lui, et après une interdiction des lancements de parachutes de la Tour, a fini sous enquête sans aucune conséquence.
+Elle s'est enrôlée parmi les premiers volontaires en 1939 dans les services sanitaires de l'Armée de l'air. En février 1940, elle a été envoyée en Scandinavie et retourne à Paris avec les collègues le 7 avril 1940. Entre juin et novembre 1940, elle est en service à la base aérienne de Bordeaux. Elle a ensuite été confiée à l'APN (Armée de l'air en Afrique du Nord) à Alger, où elle aurait dû contribuer à la création d'un service de transport aérien. Quand la Tunisie a été occupée, elle s'est engagée dans les Corps francs d'Afrique en tant qu'infirmière et ambulancière.
+Réclamée en France après la Libération et - comme les autres aviatrices impliquées dans l'initiative de Charles Tillon pendant le gouvernement De Gaulle pour former une équipe de femmes, le premier corps de pilotes militaires féminins (France) - a été envoyée pour la formation à Châteauroux et à Tours et avec Suzanne Melk, Élisabeth Boselli et Geneviève Lefevre-Seillier le 12 février 1946 a obtenu sa licence de pilote de chasse (Brevet No 32941).
+Elle a reçu la Médaille de la Résistance et la Légion d'honneur pour le service de 1939 à 1945 en tant que pilote de l'armée et de la Croix-Rouge.
 </t>
         </is>
       </c>
@@ -546,10 +560,12 @@
           <t>Décorations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Médaille de la Résistance (1947).
-Chevalier de la Légion d'Honneur (1949)[15].</t>
+Chevalier de la Légion d'Honneur (1949).</t>
         </is>
       </c>
     </row>
